--- a/docs/CS1/task05/CS1_Task5.xlsx
+++ b/docs/CS1/task05/CS1_Task5.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rolf/Dropbox/BFH/Semester 4/Software Engineering und Design/Tasks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Git\ch.bfh.bti7081.s2017.red\docs\CS1\task05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,24 +50,15 @@
     <t>Comprehensebileity</t>
   </si>
   <si>
-    <t xml:space="preserve">It is not clear what the scope of this knowledg database is. </t>
-  </si>
-  <si>
     <t>Functional User Requierments</t>
   </si>
   <si>
     <t>Completness</t>
   </si>
   <si>
-    <t>Whos medication -&gt; Not specified, Who as to validate the consumtion the patient or the helthvisitor -&gt; Unclear</t>
-  </si>
-  <si>
     <t>Realism</t>
   </si>
   <si>
-    <t>Depending on your geographical location an alarm button connected to GPS could be problematic. Due to a multitude of conection issues that can arraise on mobile devices, No fallback defined.</t>
-  </si>
-  <si>
     <t>Yes No</t>
   </si>
   <si>
@@ -80,48 +71,18 @@
     <t>Consistency</t>
   </si>
   <si>
-    <t>Functionalitys concerning other usergroups are outside the scope and should  not be included.</t>
-  </si>
-  <si>
     <t>Traceability</t>
   </si>
   <si>
-    <t>It is not clear what is ment by that and seems overly specific, because at this point no designe or general architecure has bean discussed.</t>
-  </si>
-  <si>
     <t>According to which criteria can a patient be searched -&gt; Specify</t>
   </si>
   <si>
     <t>Validity</t>
   </si>
   <si>
-    <t>Only in emergencys?</t>
-  </si>
-  <si>
-    <t>Difficult to realize repecting data protection act and Dr. Patient confidentialety. Benefit is also not clear.</t>
-  </si>
-  <si>
-    <t>Health visitors don't have acces to a patients file, such uploads must be validated by a doctor</t>
-  </si>
-  <si>
-    <t>It is not clear what "grafische Dokumente" are. What is a grafical document?</t>
-  </si>
-  <si>
     <t>Validity / Realism</t>
   </si>
   <si>
-    <t>As doctors aren't the primary users of the program, they will not participate in the chat. A mailing function would be more adequate. Also if there are uncertainties, these are often time critical, therfore a direct call function woul make more sens.</t>
-  </si>
-  <si>
-    <t>Are the healthvisitors qualified to make such judgments or should this be left to the doctors?</t>
-  </si>
-  <si>
-    <t>It is unklear if this is technicly feesable due to regulations and other limiting factors.</t>
-  </si>
-  <si>
-    <t>Is the jurnal the same thing as the "Patienten Akte" menshioned in req 10.</t>
-  </si>
-  <si>
     <t>Very specific, consider making a general 'contacts' page that can be extended to multiple purposes.</t>
   </si>
   <si>
@@ -134,12 +95,6 @@
     <t>Mentioning 13 makes mentioning 16 unnecessary</t>
   </si>
   <si>
-    <t>Not mentioned that the user wants to initially create appointments in theri timetable. See 15, 21, 22</t>
-  </si>
-  <si>
-    <t>Core requierments are missing such as Timetable, Patient dossier, etc...</t>
-  </si>
-  <si>
     <t>Non Function User Requierments</t>
   </si>
   <si>
@@ -155,18 +110,12 @@
     <t>Traceabillity / Verifiability</t>
   </si>
   <si>
-    <t>Reliable is not a requierment, it is not percise and cant be measured. What is reliable.</t>
-  </si>
-  <si>
     <t>Verifiability</t>
   </si>
   <si>
     <t>Short loading time and good performance is subjective and can't be quantified</t>
   </si>
   <si>
-    <t>User frendly and intuetive, needs further specification, other wise it is hard to measure.</t>
-  </si>
-  <si>
     <t>Not verifiable, it should be specified in which way it should be flexible.</t>
   </si>
   <si>
@@ -185,15 +134,9 @@
     <t xml:space="preserve">It's not clear what data is mentioned here. If this refers to the backup case of 1, this should be clearly stated. </t>
   </si>
   <si>
-    <t>Mention what functions must be accesible by web (defines costs).</t>
-  </si>
-  <si>
     <t>Completeness</t>
   </si>
   <si>
-    <t>What is secure authentification?</t>
-  </si>
-  <si>
     <t>What kind of exports / imports should be supported (e.g. print, scan, file types).</t>
   </si>
   <si>
@@ -215,22 +158,79 @@
     <t>Not all Data is available offline due to storage and data protection (e.g. a device getting lost) instead of "most recent data" it should be stated "recently used data" (i.e. caching)</t>
   </si>
   <si>
-    <t>Modle is very naive and does not account for multiuser conflicts. Also locking isnt adressed in this modle. The modle as proposed is not realisable and would most likely cause data inconsistencys.</t>
-  </si>
-  <si>
     <t>Not stated if small or big error tolerance or which context.</t>
   </si>
   <si>
-    <t>Not verifiable consider "modular architecture" or "plugin supporting architecture"</t>
-  </si>
-  <si>
     <t>Consider mentioning the kind of interfaces to provide (web service, API)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is not clear what the scope of this knowledge database is. </t>
+  </si>
+  <si>
+    <t>Whose medication -&gt; Not specified, who as to validate the consumption the patient or the health visitor -&gt; Unclear</t>
+  </si>
+  <si>
+    <t>Depending on your geographical location an alarm button connected to GPS could be problematic. Due to a multitude of connection issues that can arise on mobile devices, no fallback defined.</t>
+  </si>
+  <si>
+    <t>Functionalities concerning other user groups are outside the scope and should not be included.</t>
+  </si>
+  <si>
+    <t>It is not clear what is meant by that and seems overly specific, because at this point no design or general architecture has been discussed.</t>
+  </si>
+  <si>
+    <t>Only in emergencies?</t>
+  </si>
+  <si>
+    <t>Difficult to realize respecting data protection act and Dr. Patient confidentiality. Benefit is also not clear.</t>
+  </si>
+  <si>
+    <t>Health visitors don't have access to a patients file, such uploads must be validated by a doctor</t>
+  </si>
+  <si>
+    <t>It is not clear what "grafische Dokumente" are. What is a graphical document?</t>
+  </si>
+  <si>
+    <t>As doctors aren't the primary users of the program, they will not participate in the chat. A mailing function would be more adequate. Also if there are uncertainties, these are often time critical, therefore a direct call function would make more sense</t>
+  </si>
+  <si>
+    <t>Are the health visitors qualified to make such judgments or should this be left to the doctors?</t>
+  </si>
+  <si>
+    <t>It is unclear if this is technically feasible due to regulations and other limiting factors.</t>
+  </si>
+  <si>
+    <t>Is the journal the same thing as the "Patienten Akte" mentioned in req. 10.</t>
+  </si>
+  <si>
+    <t>Not mentioned that the user wants to initially create appointments in their timetable. See 15, 21, 22</t>
+  </si>
+  <si>
+    <t>Core requirements are missing such as Timetable, Patient dossier, etc...</t>
+  </si>
+  <si>
+    <t>Reliable is not a requirement, it is not precise and can’t be measured. What is reliable.</t>
+  </si>
+  <si>
+    <t>User friendly and intuitive, needs further specification, otherwise it is hard to measure.</t>
+  </si>
+  <si>
+    <t>Mention what functions must be accessible by web (defines costs).</t>
+  </si>
+  <si>
+    <t>What is secure authentication?</t>
+  </si>
+  <si>
+    <t>Modle is very naive and does not account for multiuser conflicts. Also locking isn’t addressed in this modle. The modle as proposed is not realizable and would most likely cause data inconsistency.</t>
+  </si>
+  <si>
+    <t>Not verifiable, consider "modular architecture" or "plugin supporting architecture"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -290,7 +290,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -299,19 +302,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <numFmt numFmtId="164" formatCode="dd\-mmm"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -319,6 +319,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -331,7 +334,7 @@
     <tableColumn id="1" name="Page Number" dataDxfId="8"/>
     <tableColumn id="2" name="Req#" dataDxfId="7"/>
     <tableColumn id="3" name="Category"/>
-    <tableColumn id="4" name="Comment" dataDxfId="6"/>
+    <tableColumn id="4" name="Comment" dataDxfId="3"/>
     <tableColumn id="5" name="Yes No"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -343,9 +346,9 @@
   <autoFilter ref="A27:E33"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Page Number"/>
-    <tableColumn id="2" name="Req#" dataDxfId="5"/>
+    <tableColumn id="2" name="Req#" dataDxfId="6"/>
     <tableColumn id="3" name="Category"/>
-    <tableColumn id="4" name="Comment" dataDxfId="4"/>
+    <tableColumn id="4" name="Comment" dataDxfId="2"/>
     <tableColumn id="5" name="Yes No"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -357,9 +360,9 @@
   <autoFilter ref="A38:E42"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Page Number"/>
-    <tableColumn id="2" name="Req#" dataDxfId="3"/>
+    <tableColumn id="2" name="Req#" dataDxfId="5"/>
     <tableColumn id="3" name="Category"/>
-    <tableColumn id="4" name="Comment" dataDxfId="2"/>
+    <tableColumn id="4" name="Comment" dataDxfId="1"/>
     <tableColumn id="5" name="Yes No"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -371,7 +374,7 @@
   <autoFilter ref="A47:E54"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Page Number"/>
-    <tableColumn id="2" name="Req#" dataDxfId="1"/>
+    <tableColumn id="2" name="Req#" dataDxfId="4"/>
     <tableColumn id="3" name="Category"/>
     <tableColumn id="4" name="Comment" dataDxfId="0"/>
     <tableColumn id="5" name="Yes No"/>
@@ -645,11 +648,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
@@ -658,12 +661,12 @@
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,10 +680,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -694,10 +697,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -708,13 +711,13 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -722,16 +725,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -739,16 +742,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -756,13 +759,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -770,16 +773,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -787,16 +790,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -804,16 +807,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -821,16 +824,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -838,16 +841,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -855,16 +858,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -872,16 +875,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -889,16 +892,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3</v>
       </c>
@@ -906,13 +909,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3</v>
       </c>
@@ -920,16 +923,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3</v>
       </c>
@@ -937,16 +940,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3</v>
       </c>
@@ -954,83 +957,83 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,10 +1047,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1055,16 +1058,16 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1072,16 +1075,16 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1089,16 +1092,16 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1106,16 +1109,16 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1123,55 +1126,55 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,10 +1188,10 @@
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>10</v>
       </c>
@@ -1196,16 +1199,16 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>10</v>
       </c>
@@ -1213,16 +1216,16 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>10</v>
       </c>
@@ -1230,16 +1233,16 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>10</v>
       </c>
@@ -1247,38 +1250,38 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -1292,10 +1295,10 @@
         <v>2</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>10</v>
       </c>
@@ -1303,16 +1306,16 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>10</v>
       </c>
@@ -1320,16 +1323,16 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>10</v>
       </c>
@@ -1337,16 +1340,16 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>10</v>
       </c>
@@ -1354,16 +1357,16 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>10</v>
       </c>
@@ -1371,16 +1374,16 @@
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>10</v>
       </c>
@@ -1388,16 +1391,16 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>11</v>
       </c>
@@ -1405,13 +1408,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
